--- a/rt_admin/work/static/paper/sample.xlsx
+++ b/rt_admin/work/static/paper/sample.xlsx
@@ -1,172 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\rt_admin\work\static\paper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD1C311-8BAA-42A1-8DD3-6504141E38AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{DD54632C-245A-460D-97CE-2D8CDEECE509}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="report" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>版税报表</t>
-  </si>
-  <si>
-    <t>出版社</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shaozhuo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>報表月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>汇率</t>
-    </r>
-  </si>
-  <si>
-    <t>平台收入</t>
-  </si>
-  <si>
-    <t>手續費</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆帳比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆帐小计</t>
-  </si>
-  <si>
-    <t>TW</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="10">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Microsoft JhengHei"/>
+      <charset val="136"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
       <charset val="136"/>
-    </font>
-    <font>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Microsoft JhengHei"/>
+      <charset val="136"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Microsoft JhengHei"/>
+      <charset val="136"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="微軟正黑體"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,41 +118,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,238 +167,266 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Microsoft JhengHei"/>
+        <charset val="136"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="176" formatCode="0.00_ "/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Microsoft JhengHei"/>
+        <charset val="136"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Microsoft JhengHei"/>
+        <charset val="136"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Microsoft JhengHei"/>
+        <charset val="136"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="177" formatCode="0_ "/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Microsoft JhengHei"/>
+        <charset val="136"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Microsoft JhengHei"/>
+        <charset val="136"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Microsoft JhengHei"/>
+        <charset val="136"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Microsoft JhengHei"/>
+        <charset val="136"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FCDDA61-8B9C-48CD-AD12-EA72DD6242B0}" name="表格1" displayName="表格1" ref="A4:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A4:F5" headerRowCount="1" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AF54D69-3691-4850-96C8-5BA92324BEC2}" name="地区" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4021EFE7-907A-43D7-BC99-685891743B02}" name="汇率" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{25B63B83-1297-49C0-8444-60E98CAF40E8}" name="平台收入" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{997B7709-BDBA-4C03-BE9D-04673BE34CBA}" name="手續費" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{174059B6-4507-41D1-A359-91F7BDBB9A5B}" name="拆帳比" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9D7712E7-CFAC-4D62-826B-9D57231FACE8}" name="拆帐小计" dataDxfId="0">
+    <tableColumn id="1" name="地区" dataDxfId="5"/>
+    <tableColumn id="2" name="汇率" dataDxfId="4"/>
+    <tableColumn id="3" name="平台收入" dataDxfId="3"/>
+    <tableColumn id="4" name="手續費" dataDxfId="2"/>
+    <tableColumn id="5" name="拆帳比" dataDxfId="1"/>
+    <tableColumn id="6" name="拆帐小计" dataDxfId="0">
       <calculatedColumnFormula>表格1[[#This Row],[汇率]]*表格1[[#This Row],[平台收入]]*(1-表格1[[#This Row],[手續費]])*表格1[[#This Row],[拆帳比]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -761,109 +730,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8E4EAD-96EB-49BD-8809-D8A72BA8C27C}">
-  <sheetPr codeName="工作表5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="工作表5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" customWidth="1"/>
-    <col min="4" max="5" width="14.09765625" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1"/>
+    <col width="15.09765625" customWidth="1" min="1" max="1"/>
+    <col width="14.09765625" customWidth="1" min="2" max="2"/>
+    <col width="18.296875" customWidth="1" min="3" max="3"/>
+    <col width="14.09765625" customWidth="1" min="4" max="5"/>
+    <col width="19.796875" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="39.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="39.5" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>版税报表</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="53" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>出版社</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>shaozhuo</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>報表月</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>202308</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>地区</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>汇率</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>平台收入</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>拆帳比</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>拆帐小计</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>1.9363</v>
+      </c>
+      <c r="C5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D5" s="8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="14" t="n"/>
     </row>
-    <row r="3" spans="1:6" ht="53" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>202308</v>
-      </c>
+    <row r="7" ht="20" customFormat="1" customHeight="1" s="10">
+      <c r="B7" s="11" t="n"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="8" ht="20" customFormat="1" customHeight="1" s="10">
+      <c r="B8" s="12" t="n"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1.9362999999999999</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="9"/>
+    <row r="9" ht="20" customFormat="1" customHeight="1" s="10">
+      <c r="B9" s="12" t="n"/>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1">
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1">
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1">
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1">
-      <c r="B10" s="12"/>
+    <row r="10" ht="20" customFormat="1" customHeight="1" s="10">
+      <c r="B10" s="12" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="1200" verticalDpi="1200"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>